--- a/biology/Botanique/École_de_botanique/École_de_botanique.xlsx
+++ b/biology/Botanique/École_de_botanique/École_de_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_botanique</t>
+          <t>École_de_botanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Située au centre du jardin des plantes de Paris, l’école de botanique du Muséum national d'histoire naturelle est un jardin botanique spécialisé qui expose au public et aux étudiants la biodiversité végétale dans une double perspective :
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_botanique</t>
+          <t>École_de_botanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +527,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le XVIe siècle, des enseignements en botanique sont donnés aux alentours de ce site, par Nicolas Houël, mais c’est la création du Jardin royal des plantes médicinales en 1626 qui se traduit par la fondation à cet endroit, neuf ans plus tard, d’une « école de botanique » où jusqu’à nos jours, le Muséum, qui est aussi un grand établissement d’enseignement supérieur et de « formation tout au long de la vie » pour tous publics, dispense des cours et des formations[1]. 
-L’école de botanique acquiert ses limites actuelles dans le dernier quart du XVIIIe siècle, avec Antoine-Laurent de Jussieu et André Thouin ; ensuite ce dernier et René Desfontaines lui donnent, dans le premier quart du XIXe siècle, sa topographie conçue pour comprendre les classifications de la biodiversité végétale, mais aussi pour découvrir les conditions nécessaires à chaque espèce et apprendre leurs éventuelles utilisations possibles. Un pin Laricio issu de graines rapportées par Étienne-François Turgot lors de l’un de ses voyages en Corse trône au milieu de l’école de botanique. Ce pin planté en 1774 à l’emplacement du groupe des conifères a été foudroyé au XIXe siècle et il est, pour cette raison, écrêté[2]. Au fil du temps, les progrès scientifiques dans la compréhension des apparentements entre végétaux se sont traduits, sur le terrain, par cinq remaniements de la disposition des plantations :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le XVIe siècle, des enseignements en botanique sont donnés aux alentours de ce site, par Nicolas Houël, mais c’est la création du Jardin royal des plantes médicinales en 1626 qui se traduit par la fondation à cet endroit, neuf ans plus tard, d’une « école de botanique » où jusqu’à nos jours, le Muséum, qui est aussi un grand établissement d’enseignement supérieur et de « formation tout au long de la vie » pour tous publics, dispense des cours et des formations. 
+L’école de botanique acquiert ses limites actuelles dans le dernier quart du XVIIIe siècle, avec Antoine-Laurent de Jussieu et André Thouin ; ensuite ce dernier et René Desfontaines lui donnent, dans le premier quart du XIXe siècle, sa topographie conçue pour comprendre les classifications de la biodiversité végétale, mais aussi pour découvrir les conditions nécessaires à chaque espèce et apprendre leurs éventuelles utilisations possibles. Un pin Laricio issu de graines rapportées par Étienne-François Turgot lors de l’un de ses voyages en Corse trône au milieu de l’école de botanique. Ce pin planté en 1774 à l’emplacement du groupe des conifères a été foudroyé au XIXe siècle et il est, pour cette raison, écrêté. Au fil du temps, les progrès scientifiques dans la compréhension des apparentements entre végétaux se sont traduits, sur le terrain, par cinq remaniements de la disposition des plantations :
 en 1683, par Joseph Pitton de Tournefort ;
 en 1773-1774, par Antoine-Laurent de Jussieu ;
 en 1824, par René Desfontaines ;
 en 1843, par Adolphe Brongniart ;
 en 1954-1957, par André Guillaumin et Camille Guinet ;
 depuis 1957 et jusqu’en 2008, la disposition de l’École de Botanique était fondée sur la classification du botaniste allemand Adolf Engler (datée de 1924).
-Au XIXe siècle, à partir du remaniement de Brogniart, les classifications tiennent compte de la notion d’évolution explicitée par Charles Darwin. Dans la seconde moitié du XXe siècle, les avancées technologiques permettent d’augmenter fortement les connaissances en génétique et biologie moléculaire, qui modifient à leur tour les classifications. Jusque-là principalement fondées sur la morphologie végétale, elles sont désormais phylogénétiques. La connaissance des symbioses comme la mycorhize et la rhizobie fait aussi des progrès considérables, ce qui permet de mieux comprendre la pédologie (science des sols)[3].
+Au XIXe siècle, à partir du remaniement de Brogniart, les classifications tiennent compte de la notion d’évolution explicitée par Charles Darwin. Dans la seconde moitié du XXe siècle, les avancées technologiques permettent d’augmenter fortement les connaissances en génétique et biologie moléculaire, qui modifient à leur tour les classifications. Jusque-là principalement fondées sur la morphologie végétale, elles sont désormais phylogénétiques. La connaissance des symbioses comme la mycorhize et la rhizobie fait aussi des progrès considérables, ce qui permet de mieux comprendre la pédologie (science des sols).
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_de_botanique</t>
+          <t>École_de_botanique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’entrée Ouest de l’école de botanique se trouve vis-à-vis de celle de la grande serre ; l’entrée Est face au jardin écologique. Au Nord, l’école de botanique est bordée par l’allée Cuvier, au Sud par l’allée Lacroix. Un passage souterrain situé du côté Nord-Ouest de l’école de botanique donne accès au jardin alpin voisin (sauf en décembre, janvier et février, mois de fermeture de ce dernier).
 La classification actuellement présentée à l’école de botanique (2017) est la version nommée « APG III », définie en 2009 par le groupement international de botanistes taxonomistes « APG » (Angiosperm Phylogeny Group). L’évolution buissonnante des plantes terrestres est représentée sur une table d’orientation au centre de l’école de botanique : elle montre le lien entre l’histoire évolutive des plantes, la classification qui en découle, et la disposition des plantes dans le Jardin dont quatre carrés illustrent respectivement l’adaptation, la diversification des végétaux, leurs convergences évolutives, et l’orientation de leur évolution.
